--- a/BackTest/2020-01-25 BackTest BTG.xlsx
+++ b/BackTest/2020-01-25 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3410.19790487</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3226.50378219</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3497.515382189999</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4317.231582189999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4329.041882189999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4396.861882189999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4570.361882189999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4560.941882189999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5036.168882189999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5051.627582189999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5046.469482189999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5046.469482189999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5017.74298219</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4408.54288219</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4405.392882190001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4706.84908219</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-4804.03318219</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-4722.90818219</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-4878.90818219</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-5048.90818219</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-5048.71268219</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-5742.824692800002</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-5694.144692800001</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-5806.109108200002</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5680.794907590002</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5648.844907590003</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-5801.462307590003</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-5837.682307590003</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5830.682307590003</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-6118.338607590003</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-6118.338607590003</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6300.868607590002</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6250.393607590002</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6536.893607590002</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6420.433607590002</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-7113.667607590002</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6580.567607590002</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6722.567607590002</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6678.260707590002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-6678.260707590002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6652.941907590002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-6552.941907590002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-6538.852607590003</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-6303.664307590002</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6303.553907590002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6033.435607590002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-5352.407414050002</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-5333.518716900003</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-5346.383216900002</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-5518.846423120002</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5608.346423120002</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-5559.582546020002</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5769.582546020002</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5961.582546020002</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5951.603246020002</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-5684.988046020002</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5724.988046020002</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-5699.841546020002</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-5907.341546020002</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5766.290046020003</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5766.223746020002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5846.017146020002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5845.644374820002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5851.694374820002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5851.567074820002</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5895.894074820002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-6133.141574820002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-7343.753874820002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-7226.117274820002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-7248.011174820002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-7142.148693420002</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-8464.009793420002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-8734.405093420002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-8564.689693420003</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-8554.846493420004</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-8502.056399490004</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-8546.186799490004</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-8570.152699490003</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-8525.257299490004</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-8464.397999490004</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-8464.352999490004</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -11539,11 +11539,17 @@
         <v>-17081.19362491</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>10680</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11572,11 +11578,17 @@
         <v>-17051.19362491</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>10670</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11617,17 @@
         <v>-16862.33982491</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>10730</v>
+      </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11638,11 +11656,17 @@
         <v>-16809.93592491</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>10750</v>
+      </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +11695,17 @@
         <v>-16073.32702491</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>10760</v>
+      </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11738,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11775,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11812,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +11849,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11840,7 +11886,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +11923,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +11960,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +11997,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12034,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12071,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12108,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12145,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12182,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12219,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12256,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12293,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12330,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12367,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12404,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12441,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12478,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12515,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12552,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12589,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12626,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12663,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12700,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12737,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12774,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12811,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12848,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12885,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12922,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12959,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12996,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13033,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13070,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13107,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13144,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13181,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13218,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13255,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13292,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13329,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13366,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13403,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13440,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13477,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13514,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13551,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13588,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13625,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13662,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13699,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13736,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13773,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13810,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13847,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13884,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +13921,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +13958,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13991,17 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>10710</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14030,17 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>10730</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14069,17 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>10730</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,7 +14108,7 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>10730</v>
@@ -13824,7 +14116,7 @@
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L407" t="n">
@@ -13855,7 +14147,7 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>10710</v>
@@ -13894,7 +14186,7 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>10710</v>
@@ -13933,7 +14225,7 @@
         <v>-18417.37358045001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>10710</v>
@@ -13972,7 +14264,7 @@
         <v>-18392.37358045001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>10700</v>
@@ -14011,7 +14303,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>10750</v>
@@ -14050,7 +14342,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>10700</v>
@@ -14089,7 +14381,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>10700</v>
@@ -14128,7 +14420,7 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>10700</v>
@@ -14167,7 +14459,7 @@
         <v>-18208.95548045</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>10700</v>
@@ -14206,7 +14498,7 @@
         <v>-18208.95548045</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>10710</v>
@@ -14245,7 +14537,7 @@
         <v>-18091.43038045001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>10710</v>
@@ -14284,7 +14576,7 @@
         <v>-18107.68488045</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>10800</v>
@@ -14323,7 +14615,7 @@
         <v>-17919.68488045</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>10760</v>
@@ -14362,7 +14654,7 @@
         <v>-17971.78718045</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>10800</v>
@@ -14401,7 +14693,7 @@
         <v>-17797.32718045</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>10790</v>
@@ -14440,7 +14732,7 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>10800</v>
@@ -14479,7 +14771,7 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>10810</v>
@@ -14518,7 +14810,7 @@
         <v>-17701.37928045</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>10810</v>
@@ -14557,7 +14849,7 @@
         <v>-17750.30348045001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>10830</v>
@@ -14596,9 +14888,11 @@
         <v>-17750.30348045001</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>10810</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14670,9 +14964,11 @@
         <v>-17678.76348045</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>10780</v>
+      </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -14707,9 +15003,11 @@
         <v>-17779.26348045</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>10800</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14781,9 +15079,11 @@
         <v>-17689.50068045</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>10800</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14818,9 +15118,11 @@
         <v>-17689.50068045</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>10800</v>
+      </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -14929,9 +15231,11 @@
         <v>-17693.50068045</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>10780</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -16039,9 +16343,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>11120</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16076,9 +16382,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>11130</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16113,9 +16421,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>11130</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16150,9 +16460,11 @@
         <v>-18287.90368045001</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>11130</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16187,9 +16499,11 @@
         <v>-18537.96258045001</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>11120</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16298,9 +16612,11 @@
         <v>-18670.04638045001</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>11040</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16335,9 +16651,11 @@
         <v>-18283.04278045001</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>11010</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16372,9 +16690,11 @@
         <v>-18254.89278045001</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>11070</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16409,9 +16729,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>11080</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16446,9 +16768,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>11100</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16483,9 +16807,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>11100</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16520,9 +16846,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>11100</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16557,9 +16885,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>11100</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16594,9 +16924,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>11100</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16631,9 +16963,11 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>11100</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16668,9 +17002,11 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>11120</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16705,9 +17041,11 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>11120</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16742,9 +17080,11 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>11110</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -18222,9 +18562,11 @@
         <v>-20217.43358045001</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>10830</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18259,9 +18601,11 @@
         <v>-20248.26638045001</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>10860</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18296,9 +18640,11 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>10850</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18333,9 +18679,11 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>10860</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18370,9 +18718,11 @@
         <v>-20208.71868045001</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>10860</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18407,9 +18757,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>10850</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18444,9 +18796,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>10890</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18481,9 +18835,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>10890</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18518,9 +18874,11 @@
         <v>-20095.30868045001</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>10890</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -19073,9 +19431,11 @@
         <v>-21209.77328045001</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>10820</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19110,9 +19470,11 @@
         <v>-21237.25508045001</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>10820</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19147,9 +19509,11 @@
         <v>-21387.99028045001</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>10810</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19184,9 +19548,11 @@
         <v>-21557.91718045001</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>10800</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19221,9 +19587,11 @@
         <v>-21102.15658045001</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>10750</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19258,9 +19626,11 @@
         <v>-21142.15658045001</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>10810</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19295,9 +19665,11 @@
         <v>-21005.85848045001</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>10760</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19369,9 +19741,11 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>10740</v>
+      </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
@@ -19961,9 +20335,11 @@
         <v>-19486.68432464001</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>10880</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -20035,9 +20411,11 @@
         <v>-19451.73092464001</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>10880</v>
+      </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
@@ -20072,9 +20450,11 @@
         <v>-19469.73092464001</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>10900</v>
+      </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -20960,9 +21340,11 @@
         <v>-19499.93405577</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>10810</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20997,9 +21379,11 @@
         <v>-19441.62635577</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>10820</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21071,9 +21455,11 @@
         <v>-19465.37865577</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>10830</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21330,9 +21716,11 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>10800</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21700,7 +22088,7 @@
         <v>-16922.15505576999</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21737,7 +22125,7 @@
         <v>-16313.33775576999</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21774,7 +22162,7 @@
         <v>-17171.18955576999</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21811,7 +22199,7 @@
         <v>-17239.34395576999</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21848,7 +22236,7 @@
         <v>-17366.11835576999</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21885,7 +22273,7 @@
         <v>-16861.42965576999</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21922,7 +22310,7 @@
         <v>-16961.42965576999</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21959,7 +22347,7 @@
         <v>-17261.42965576999</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22514,7 +22902,7 @@
         <v>-17744.17685576999</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22551,7 +22939,7 @@
         <v>-17727.38165576999</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22773,7 +23161,7 @@
         <v>-16792.86345751999</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22810,7 +23198,7 @@
         <v>-16874.63045751999</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22847,7 +23235,7 @@
         <v>-16940.15475751999</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22884,7 +23272,7 @@
         <v>-16750.15475751999</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22921,7 +23309,7 @@
         <v>-16750.69625751999</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22958,7 +23346,7 @@
         <v>-16761.22925751999</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22995,7 +23383,7 @@
         <v>-16896.53475751999</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23032,7 +23420,7 @@
         <v>-17821.08175751999</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23106,9 +23494,11 @@
         <v>-17589.63015751999</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>11260</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23143,9 +23533,11 @@
         <v>-17508.02535751999</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>11210</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -27154,6 +27546,6 @@
       <c r="M766" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BTG.xlsx
+++ b/BackTest/2020-01-25 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-3410.19790487</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3348.98790487</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-3348.90072092</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3382.86578219</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-4332.231582189999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-4317.231582189999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-4329.041882189999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-4396.861882189999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-4570.361882189999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-4560.941882189999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-5036.168882189999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-5051.627582189999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-5046.469482189999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-5046.469482189999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-5017.74298219</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4408.54288219</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4405.392882190001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6580.567607590002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6722.567607590002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6678.260707590002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-6678.260707590002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6652.941907590002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-6552.941907590002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-6538.852607590003</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-6303.664307590002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6303.553907590002</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6033.435607590002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-5333.518716900003</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5608.346423120002</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-5559.582546020002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5769.582546020002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5961.582546020002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5951.603246020002</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-5684.988046020002</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5724.988046020002</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-5699.841546020002</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-5907.341546020002</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5766.290046020003</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5766.223746020002</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5846.017146020002</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5845.644374820002</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5851.694374820002</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5851.567074820002</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5895.894074820002</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-6133.141574820002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-7343.753874820002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-7226.117274820002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-7248.011174820002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-7142.148693420002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-8464.009793420002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-8734.405093420002</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-8564.689693420003</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-8554.846493420004</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-8502.056399490004</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-8546.186799490004</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-8570.152699490003</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-8525.257299490004</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-8503.565399490004</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-8464.397999490004</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-8464.352999490004</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -11539,2547 +11539,2261 @@
         <v>-17081.19362491</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>10680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C339" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D339" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E339" t="n">
+        <v>10730</v>
+      </c>
+      <c r="F339" t="n">
+        <v>30</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-17051.19362491</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C340" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D340" t="n">
+        <v>10760</v>
+      </c>
+      <c r="E340" t="n">
+        <v>10730</v>
+      </c>
+      <c r="F340" t="n">
+        <v>188.8538</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-16862.33982491</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>10750</v>
+      </c>
+      <c r="C341" t="n">
+        <v>10760</v>
+      </c>
+      <c r="D341" t="n">
+        <v>10760</v>
+      </c>
+      <c r="E341" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F341" t="n">
+        <v>52.4039</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-16809.93592491</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>10760</v>
+      </c>
+      <c r="C342" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D342" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E342" t="n">
+        <v>10760</v>
+      </c>
+      <c r="F342" t="n">
+        <v>736.6088999999999</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-16073.32702491</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C343" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D343" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E343" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F343" t="n">
+        <v>101.8209</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-16175.14792491</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C344" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D344" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E344" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F344" t="n">
+        <v>130.1674</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-16175.14792491</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C345" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D345" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E345" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F345" t="n">
+        <v>26.4557</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-16175.14792491</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C346" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D346" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E346" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F346" t="n">
+        <v>340.8736</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-16175.14792491</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C347" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D347" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E347" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-16172.14792491</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C348" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D348" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E348" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F348" t="n">
+        <v>156.3707</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-16172.14792491</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C349" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D349" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E349" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F349" t="n">
+        <v>7.5788</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-16179.72672491</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>10770</v>
+      </c>
+      <c r="C350" t="n">
+        <v>10760</v>
+      </c>
+      <c r="D350" t="n">
+        <v>10770</v>
+      </c>
+      <c r="E350" t="n">
+        <v>10760</v>
+      </c>
+      <c r="F350" t="n">
+        <v>421.5012</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-16601.22792491</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C351" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D351" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E351" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F351" t="n">
+        <v>4</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-16597.22792491</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C352" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D352" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E352" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F352" t="n">
+        <v>72.2043</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-16669.43222491</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C353" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D353" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E353" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F353" t="n">
+        <v>110.7072</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-16558.72502491</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C354" t="n">
+        <v>10850</v>
+      </c>
+      <c r="D354" t="n">
+        <v>10850</v>
+      </c>
+      <c r="E354" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F354" t="n">
+        <v>441.0646</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-16117.66042491</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C355" t="n">
+        <v>10890</v>
+      </c>
+      <c r="D355" t="n">
+        <v>10890</v>
+      </c>
+      <c r="E355" t="n">
+        <v>10850</v>
+      </c>
+      <c r="F355" t="n">
+        <v>105.55833094</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-16012.10209397</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>10900</v>
+      </c>
+      <c r="C356" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D356" t="n">
+        <v>10910</v>
+      </c>
+      <c r="E356" t="n">
+        <v>10880</v>
+      </c>
+      <c r="F356" t="n">
+        <v>146</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-16158.10209397</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>10900</v>
+      </c>
+      <c r="C357" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D357" t="n">
+        <v>10900</v>
+      </c>
+      <c r="E357" t="n">
+        <v>10880</v>
+      </c>
+      <c r="F357" t="n">
+        <v>90.2954</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-16158.10209397</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>10900</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10910</v>
+      </c>
+      <c r="D358" t="n">
+        <v>10910</v>
+      </c>
+      <c r="E358" t="n">
+        <v>10900</v>
+      </c>
+      <c r="F358" t="n">
+        <v>30.5950747</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-16127.50701927</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>10860</v>
+      </c>
+      <c r="C359" t="n">
+        <v>10850</v>
+      </c>
+      <c r="D359" t="n">
+        <v>10860</v>
+      </c>
+      <c r="E359" t="n">
+        <v>10850</v>
+      </c>
+      <c r="F359" t="n">
+        <v>300.933</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-16428.44001927</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>10870</v>
+      </c>
+      <c r="C360" t="n">
+        <v>10870</v>
+      </c>
+      <c r="D360" t="n">
+        <v>10870</v>
+      </c>
+      <c r="E360" t="n">
+        <v>10870</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-16428.37701927</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>10840</v>
+      </c>
+      <c r="C361" t="n">
+        <v>10840</v>
+      </c>
+      <c r="D361" t="n">
+        <v>10840</v>
+      </c>
+      <c r="E361" t="n">
+        <v>10840</v>
+      </c>
+      <c r="F361" t="n">
+        <v>102.33291512</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-16530.70993439</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C362" t="n">
+        <v>10840</v>
+      </c>
+      <c r="D362" t="n">
+        <v>10840</v>
+      </c>
+      <c r="E362" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F362" t="n">
+        <v>190.7536</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-16530.70993439</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C363" t="n">
+        <v>10840</v>
+      </c>
+      <c r="D363" t="n">
+        <v>10840</v>
+      </c>
+      <c r="E363" t="n">
+        <v>10830</v>
+      </c>
+      <c r="F363" t="n">
+        <v>39</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-16530.70993439</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C364" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D364" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E364" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F364" t="n">
+        <v>101.8907</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-16632.60063439</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C365" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D365" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E365" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F365" t="n">
+        <v>29.0478</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-16632.60063439</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C366" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D366" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E366" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F366" t="n">
+        <v>98.7689</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-16632.60063439</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D367" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E367" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F367" t="n">
+        <v>180.478</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-16632.60063439</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C368" t="n">
+        <v>10780</v>
+      </c>
+      <c r="D368" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E368" t="n">
+        <v>10780</v>
+      </c>
+      <c r="F368" t="n">
+        <v>392.2902</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-17024.89083439</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C369" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D369" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E369" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F369" t="n">
+        <v>17.8441</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-17007.04673439001</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C370" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D370" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E370" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F370" t="n">
+        <v>466.1616</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-17473.20833439</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C371" t="n">
+        <v>10830</v>
+      </c>
+      <c r="D371" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E371" t="n">
+        <v>10830</v>
+      </c>
+      <c r="F371" t="n">
+        <v>4.52446906</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-17468.68386533</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C372" t="n">
+        <v>10810</v>
+      </c>
+      <c r="D372" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E372" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F372" t="n">
+        <v>14.5233</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-17483.20716533</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C373" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D373" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E373" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F373" t="n">
+        <v>79.63200000000001</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-17403.57516533</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C374" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D374" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E374" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F374" t="n">
+        <v>232.6572</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-17403.57516533</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C375" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D375" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E375" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F375" t="n">
+        <v>6.1799</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-17403.57516533</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C376" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D376" t="n">
+        <v>10880</v>
+      </c>
+      <c r="E376" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F376" t="n">
+        <v>441.32408488</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-16962.25108045</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>10880</v>
+      </c>
+      <c r="C377" t="n">
+        <v>10880</v>
+      </c>
+      <c r="D377" t="n">
+        <v>10880</v>
+      </c>
+      <c r="E377" t="n">
+        <v>10880</v>
+      </c>
+      <c r="F377" t="n">
+        <v>49.131</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-16962.25108045</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C378" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D378" t="n">
+        <v>10880</v>
+      </c>
+      <c r="E378" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F378" t="n">
+        <v>116.4117</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-17078.66278045</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C379" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D379" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E379" t="n">
+        <v>10820</v>
+      </c>
+      <c r="F379" t="n">
+        <v>31.52461512</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-17078.66278045</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C380" t="n">
+        <v>10850</v>
+      </c>
+      <c r="D380" t="n">
+        <v>10850</v>
+      </c>
+      <c r="E380" t="n">
+        <v>10850</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-17078.61578045</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C381" t="n">
+        <v>10810</v>
+      </c>
+      <c r="D381" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E381" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F381" t="n">
+        <v>56.0355</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-17134.65128045001</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C382" t="n">
+        <v>10810</v>
+      </c>
+      <c r="D382" t="n">
+        <v>10810</v>
+      </c>
+      <c r="E382" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F382" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-17134.65128045001</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C383" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D383" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E383" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F383" t="n">
+        <v>59.5206</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-17194.17188045001</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C384" t="n">
+        <v>10830</v>
+      </c>
+      <c r="D384" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E384" t="n">
+        <v>10830</v>
+      </c>
+      <c r="F384" t="n">
+        <v>17.7649</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-17176.40698045001</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C385" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D385" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E385" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F385" t="n">
+        <v>51</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-17227.40698045001</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C386" t="n">
+        <v>10830</v>
+      </c>
+      <c r="D386" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E386" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F386" t="n">
+        <v>70.70820000000001</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-17156.69878045001</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>10830</v>
+      </c>
+      <c r="C387" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D387" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E387" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F387" t="n">
+        <v>20.3619</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-17177.06068045001</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>10810</v>
+      </c>
+      <c r="C388" t="n">
+        <v>10820</v>
+      </c>
+      <c r="D388" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E388" t="n">
+        <v>10810</v>
+      </c>
+      <c r="F388" t="n">
+        <v>88.6502</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-17088.41048045001</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>10820</v>
+      </c>
+      <c r="C389" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D389" t="n">
+        <v>10820</v>
+      </c>
+      <c r="E389" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F389" t="n">
+        <v>6</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-17094.41048045001</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C390" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D390" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E390" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F390" t="n">
+        <v>28.2692</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-17094.41048045001</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C391" t="n">
+        <v>10780</v>
+      </c>
+      <c r="D391" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E391" t="n">
+        <v>10780</v>
+      </c>
+      <c r="F391" t="n">
+        <v>115.577</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-17209.98748045001</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>10780</v>
+      </c>
+      <c r="C392" t="n">
+        <v>10780</v>
+      </c>
+      <c r="D392" t="n">
+        <v>10780</v>
+      </c>
+      <c r="E392" t="n">
+        <v>10780</v>
+      </c>
+      <c r="F392" t="n">
+        <v>118.4776</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-17209.98748045001</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>10780</v>
+      </c>
+      <c r="C393" t="n">
+        <v>10770</v>
+      </c>
+      <c r="D393" t="n">
+        <v>10780</v>
+      </c>
+      <c r="E393" t="n">
+        <v>10770</v>
+      </c>
+      <c r="F393" t="n">
+        <v>362.7493</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-17572.73678045001</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>10770</v>
+      </c>
+      <c r="C394" t="n">
+        <v>10770</v>
+      </c>
+      <c r="D394" t="n">
+        <v>10770</v>
+      </c>
+      <c r="E394" t="n">
+        <v>10770</v>
+      </c>
+      <c r="F394" t="n">
+        <v>167</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-17572.73678045001</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>10770</v>
+      </c>
+      <c r="C395" t="n">
+        <v>10770</v>
+      </c>
+      <c r="D395" t="n">
+        <v>10770</v>
+      </c>
+      <c r="E395" t="n">
+        <v>10770</v>
+      </c>
+      <c r="F395" t="n">
+        <v>103.3532</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-17572.73678045001</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C396" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D396" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E396" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.7382</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-17571.99858045001</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>10760</v>
+      </c>
+      <c r="C397" t="n">
+        <v>10760</v>
+      </c>
+      <c r="D397" t="n">
+        <v>10760</v>
+      </c>
+      <c r="E397" t="n">
+        <v>10760</v>
+      </c>
+      <c r="F397" t="n">
+        <v>168.3371</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-17740.33568045001</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>10790</v>
+      </c>
+      <c r="C398" t="n">
+        <v>10790</v>
+      </c>
+      <c r="D398" t="n">
+        <v>10790</v>
+      </c>
+      <c r="E398" t="n">
+        <v>10790</v>
+      </c>
+      <c r="F398" t="n">
+        <v>28.5845</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-17711.75118045001</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C399" t="n">
+        <v>10800</v>
+      </c>
+      <c r="D399" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E399" t="n">
+        <v>10800</v>
+      </c>
+      <c r="F399" t="n">
+        <v>18.9908</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-17692.76038045001</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>10800</v>
+      </c>
+      <c r="C400" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D400" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E400" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F400" t="n">
+        <v>108</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-17800.76038045001</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>10750</v>
+      </c>
+      <c r="C401" t="n">
+        <v>10750</v>
+      </c>
+      <c r="D401" t="n">
+        <v>10750</v>
+      </c>
+      <c r="E401" t="n">
+        <v>10750</v>
+      </c>
+      <c r="F401" t="n">
+        <v>133.5012</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-17800.76038045001</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C402" t="n">
+        <v>10740</v>
+      </c>
+      <c r="D402" t="n">
+        <v>10740</v>
+      </c>
+      <c r="E402" t="n">
+        <v>10720</v>
+      </c>
+      <c r="F402" t="n">
+        <v>34.3634</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-17835.12378045001</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>10720</v>
+      </c>
+      <c r="C403" t="n">
+        <v>10710</v>
+      </c>
+      <c r="D403" t="n">
+        <v>10720</v>
+      </c>
+      <c r="E403" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F403" t="n">
+        <v>74</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-17909.12378045001</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C404" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D404" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E404" t="n">
+        <v>10730</v>
+      </c>
+      <c r="F404" t="n">
+        <v>25</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-17884.12378045001</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C405" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D405" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E405" t="n">
+        <v>10730</v>
+      </c>
+      <c r="F405" t="n">
+        <v>2.176</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-17884.12378045001</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>10730</v>
+      </c>
+      <c r="C406" t="n">
+        <v>10730</v>
+      </c>
+      <c r="D406" t="n">
+        <v>10730</v>
+      </c>
+      <c r="E406" t="n">
+        <v>10710</v>
+      </c>
+      <c r="F406" t="n">
+        <v>388.8975</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-17884.12378045001</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>10730</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C339" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D339" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E339" t="n">
-        <v>10730</v>
-      </c>
-      <c r="F339" t="n">
-        <v>30</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-17051.19362491</v>
-      </c>
-      <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>10670</v>
-      </c>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C340" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D340" t="n">
-        <v>10760</v>
-      </c>
-      <c r="E340" t="n">
-        <v>10730</v>
-      </c>
-      <c r="F340" t="n">
-        <v>188.8538</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-16862.33982491</v>
-      </c>
-      <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>10730</v>
-      </c>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>10750</v>
-      </c>
-      <c r="C341" t="n">
-        <v>10760</v>
-      </c>
-      <c r="D341" t="n">
-        <v>10760</v>
-      </c>
-      <c r="E341" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F341" t="n">
-        <v>52.4039</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-16809.93592491</v>
-      </c>
-      <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>10750</v>
-      </c>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>10760</v>
-      </c>
-      <c r="C342" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D342" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E342" t="n">
-        <v>10760</v>
-      </c>
-      <c r="F342" t="n">
-        <v>736.6088999999999</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-16073.32702491</v>
-      </c>
-      <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>10760</v>
-      </c>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C343" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D343" t="n">
-        <v>10810</v>
-      </c>
-      <c r="E343" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F343" t="n">
-        <v>101.8209</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-16175.14792491</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C344" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D344" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E344" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F344" t="n">
-        <v>130.1674</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-16175.14792491</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C345" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D345" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E345" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F345" t="n">
-        <v>26.4557</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-16175.14792491</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C346" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D346" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E346" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F346" t="n">
-        <v>340.8736</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-16175.14792491</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C347" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D347" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E347" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F347" t="n">
-        <v>3</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-16172.14792491</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C348" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D348" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E348" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F348" t="n">
-        <v>156.3707</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-16172.14792491</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C349" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D349" t="n">
-        <v>10810</v>
-      </c>
-      <c r="E349" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F349" t="n">
-        <v>7.5788</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-16179.72672491</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>10770</v>
-      </c>
-      <c r="C350" t="n">
-        <v>10760</v>
-      </c>
-      <c r="D350" t="n">
-        <v>10770</v>
-      </c>
-      <c r="E350" t="n">
-        <v>10760</v>
-      </c>
-      <c r="F350" t="n">
-        <v>421.5012</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-16601.22792491</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C351" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D351" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E351" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F351" t="n">
-        <v>4</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-16597.22792491</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C352" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D352" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E352" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F352" t="n">
-        <v>72.2043</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-16669.43222491</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C353" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D353" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E353" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F353" t="n">
-        <v>110.7072</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-16558.72502491</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C354" t="n">
-        <v>10850</v>
-      </c>
-      <c r="D354" t="n">
-        <v>10850</v>
-      </c>
-      <c r="E354" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F354" t="n">
-        <v>441.0646</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-16117.66042491</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>10850</v>
-      </c>
-      <c r="C355" t="n">
-        <v>10890</v>
-      </c>
-      <c r="D355" t="n">
-        <v>10890</v>
-      </c>
-      <c r="E355" t="n">
-        <v>10850</v>
-      </c>
-      <c r="F355" t="n">
-        <v>105.55833094</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-16012.10209397</v>
-      </c>
-      <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>10900</v>
-      </c>
-      <c r="C356" t="n">
-        <v>10880</v>
-      </c>
-      <c r="D356" t="n">
-        <v>10910</v>
-      </c>
-      <c r="E356" t="n">
-        <v>10880</v>
-      </c>
-      <c r="F356" t="n">
-        <v>146</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-16158.10209397</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>10900</v>
-      </c>
-      <c r="C357" t="n">
-        <v>10880</v>
-      </c>
-      <c r="D357" t="n">
-        <v>10900</v>
-      </c>
-      <c r="E357" t="n">
-        <v>10880</v>
-      </c>
-      <c r="F357" t="n">
-        <v>90.2954</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-16158.10209397</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>10900</v>
-      </c>
-      <c r="C358" t="n">
-        <v>10910</v>
-      </c>
-      <c r="D358" t="n">
-        <v>10910</v>
-      </c>
-      <c r="E358" t="n">
-        <v>10900</v>
-      </c>
-      <c r="F358" t="n">
-        <v>30.5950747</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-16127.50701927</v>
-      </c>
-      <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>10860</v>
-      </c>
-      <c r="C359" t="n">
-        <v>10850</v>
-      </c>
-      <c r="D359" t="n">
-        <v>10860</v>
-      </c>
-      <c r="E359" t="n">
-        <v>10850</v>
-      </c>
-      <c r="F359" t="n">
-        <v>300.933</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-16428.44001927</v>
-      </c>
-      <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>10870</v>
-      </c>
-      <c r="C360" t="n">
-        <v>10870</v>
-      </c>
-      <c r="D360" t="n">
-        <v>10870</v>
-      </c>
-      <c r="E360" t="n">
-        <v>10870</v>
-      </c>
-      <c r="F360" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-16428.37701927</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>10840</v>
-      </c>
-      <c r="C361" t="n">
-        <v>10840</v>
-      </c>
-      <c r="D361" t="n">
-        <v>10840</v>
-      </c>
-      <c r="E361" t="n">
-        <v>10840</v>
-      </c>
-      <c r="F361" t="n">
-        <v>102.33291512</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-16530.70993439</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>10830</v>
-      </c>
-      <c r="C362" t="n">
-        <v>10840</v>
-      </c>
-      <c r="D362" t="n">
-        <v>10840</v>
-      </c>
-      <c r="E362" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F362" t="n">
-        <v>190.7536</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-16530.70993439</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>10830</v>
-      </c>
-      <c r="C363" t="n">
-        <v>10840</v>
-      </c>
-      <c r="D363" t="n">
-        <v>10840</v>
-      </c>
-      <c r="E363" t="n">
-        <v>10830</v>
-      </c>
-      <c r="F363" t="n">
-        <v>39</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-16530.70993439</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C364" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D364" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E364" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F364" t="n">
-        <v>101.8907</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-16632.60063439</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C365" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D365" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E365" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F365" t="n">
-        <v>29.0478</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-16632.60063439</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C366" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D366" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E366" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F366" t="n">
-        <v>98.7689</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-16632.60063439</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C367" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D367" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E367" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F367" t="n">
-        <v>180.478</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-16632.60063439</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C368" t="n">
-        <v>10780</v>
-      </c>
-      <c r="D368" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E368" t="n">
-        <v>10780</v>
-      </c>
-      <c r="F368" t="n">
-        <v>392.2902</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-17024.89083439</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C369" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D369" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E369" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F369" t="n">
-        <v>17.8441</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-17007.04673439001</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C370" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D370" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E370" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F370" t="n">
-        <v>466.1616</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-17473.20833439</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>10830</v>
-      </c>
-      <c r="C371" t="n">
-        <v>10830</v>
-      </c>
-      <c r="D371" t="n">
-        <v>10830</v>
-      </c>
-      <c r="E371" t="n">
-        <v>10830</v>
-      </c>
-      <c r="F371" t="n">
-        <v>4.52446906</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-17468.68386533</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C372" t="n">
-        <v>10810</v>
-      </c>
-      <c r="D372" t="n">
-        <v>10810</v>
-      </c>
-      <c r="E372" t="n">
-        <v>10810</v>
-      </c>
-      <c r="F372" t="n">
-        <v>14.5233</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-17483.20716533</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C373" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D373" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E373" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F373" t="n">
-        <v>79.63200000000001</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-17403.57516533</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C374" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D374" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E374" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F374" t="n">
-        <v>232.6572</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-17403.57516533</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C375" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D375" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E375" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F375" t="n">
-        <v>6.1799</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-17403.57516533</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C376" t="n">
-        <v>10880</v>
-      </c>
-      <c r="D376" t="n">
-        <v>10880</v>
-      </c>
-      <c r="E376" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F376" t="n">
-        <v>441.32408488</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-16962.25108045</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>10880</v>
-      </c>
-      <c r="C377" t="n">
-        <v>10880</v>
-      </c>
-      <c r="D377" t="n">
-        <v>10880</v>
-      </c>
-      <c r="E377" t="n">
-        <v>10880</v>
-      </c>
-      <c r="F377" t="n">
-        <v>49.131</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-16962.25108045</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>10850</v>
-      </c>
-      <c r="C378" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D378" t="n">
-        <v>10880</v>
-      </c>
-      <c r="E378" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F378" t="n">
-        <v>116.4117</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-17078.66278045</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C379" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D379" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E379" t="n">
-        <v>10820</v>
-      </c>
-      <c r="F379" t="n">
-        <v>31.52461512</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-17078.66278045</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>10850</v>
-      </c>
-      <c r="C380" t="n">
-        <v>10850</v>
-      </c>
-      <c r="D380" t="n">
-        <v>10850</v>
-      </c>
-      <c r="E380" t="n">
-        <v>10850</v>
-      </c>
-      <c r="F380" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-17078.61578045</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C381" t="n">
-        <v>10810</v>
-      </c>
-      <c r="D381" t="n">
-        <v>10810</v>
-      </c>
-      <c r="E381" t="n">
-        <v>10810</v>
-      </c>
-      <c r="F381" t="n">
-        <v>56.0355</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-17134.65128045001</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C382" t="n">
-        <v>10810</v>
-      </c>
-      <c r="D382" t="n">
-        <v>10810</v>
-      </c>
-      <c r="E382" t="n">
-        <v>10810</v>
-      </c>
-      <c r="F382" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-17134.65128045001</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C383" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D383" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E383" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F383" t="n">
-        <v>59.5206</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-17194.17188045001</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>10830</v>
-      </c>
-      <c r="C384" t="n">
-        <v>10830</v>
-      </c>
-      <c r="D384" t="n">
-        <v>10830</v>
-      </c>
-      <c r="E384" t="n">
-        <v>10830</v>
-      </c>
-      <c r="F384" t="n">
-        <v>17.7649</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-17176.40698045001</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C385" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D385" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E385" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F385" t="n">
-        <v>51</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-17227.40698045001</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C386" t="n">
-        <v>10830</v>
-      </c>
-      <c r="D386" t="n">
-        <v>10830</v>
-      </c>
-      <c r="E386" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F386" t="n">
-        <v>70.70820000000001</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-17156.69878045001</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>10830</v>
-      </c>
-      <c r="C387" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D387" t="n">
-        <v>10830</v>
-      </c>
-      <c r="E387" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F387" t="n">
-        <v>20.3619</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-17177.06068045001</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>10810</v>
-      </c>
-      <c r="C388" t="n">
-        <v>10820</v>
-      </c>
-      <c r="D388" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E388" t="n">
-        <v>10810</v>
-      </c>
-      <c r="F388" t="n">
-        <v>88.6502</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-17088.41048045001</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>10820</v>
-      </c>
-      <c r="C389" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D389" t="n">
-        <v>10820</v>
-      </c>
-      <c r="E389" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F389" t="n">
-        <v>6</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-17094.41048045001</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C390" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D390" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E390" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F390" t="n">
-        <v>28.2692</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-17094.41048045001</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C391" t="n">
-        <v>10780</v>
-      </c>
-      <c r="D391" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E391" t="n">
-        <v>10780</v>
-      </c>
-      <c r="F391" t="n">
-        <v>115.577</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-17209.98748045001</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>10780</v>
-      </c>
-      <c r="C392" t="n">
-        <v>10780</v>
-      </c>
-      <c r="D392" t="n">
-        <v>10780</v>
-      </c>
-      <c r="E392" t="n">
-        <v>10780</v>
-      </c>
-      <c r="F392" t="n">
-        <v>118.4776</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-17209.98748045001</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>10780</v>
-      </c>
-      <c r="C393" t="n">
-        <v>10770</v>
-      </c>
-      <c r="D393" t="n">
-        <v>10780</v>
-      </c>
-      <c r="E393" t="n">
-        <v>10770</v>
-      </c>
-      <c r="F393" t="n">
-        <v>362.7493</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-17572.73678045001</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>10770</v>
-      </c>
-      <c r="C394" t="n">
-        <v>10770</v>
-      </c>
-      <c r="D394" t="n">
-        <v>10770</v>
-      </c>
-      <c r="E394" t="n">
-        <v>10770</v>
-      </c>
-      <c r="F394" t="n">
-        <v>167</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-17572.73678045001</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>10770</v>
-      </c>
-      <c r="C395" t="n">
-        <v>10770</v>
-      </c>
-      <c r="D395" t="n">
-        <v>10770</v>
-      </c>
-      <c r="E395" t="n">
-        <v>10770</v>
-      </c>
-      <c r="F395" t="n">
-        <v>103.3532</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-17572.73678045001</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C396" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D396" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E396" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F396" t="n">
-        <v>0.7382</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-17571.99858045001</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>10760</v>
-      </c>
-      <c r="C397" t="n">
-        <v>10760</v>
-      </c>
-      <c r="D397" t="n">
-        <v>10760</v>
-      </c>
-      <c r="E397" t="n">
-        <v>10760</v>
-      </c>
-      <c r="F397" t="n">
-        <v>168.3371</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-17740.33568045001</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>10790</v>
-      </c>
-      <c r="C398" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D398" t="n">
-        <v>10790</v>
-      </c>
-      <c r="E398" t="n">
-        <v>10790</v>
-      </c>
-      <c r="F398" t="n">
-        <v>28.5845</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-17711.75118045001</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C399" t="n">
-        <v>10800</v>
-      </c>
-      <c r="D399" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E399" t="n">
-        <v>10800</v>
-      </c>
-      <c r="F399" t="n">
-        <v>18.9908</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-17692.76038045001</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>10800</v>
-      </c>
-      <c r="C400" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D400" t="n">
-        <v>10800</v>
-      </c>
-      <c r="E400" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F400" t="n">
-        <v>108</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-17800.76038045001</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>10750</v>
-      </c>
-      <c r="C401" t="n">
-        <v>10750</v>
-      </c>
-      <c r="D401" t="n">
-        <v>10750</v>
-      </c>
-      <c r="E401" t="n">
-        <v>10750</v>
-      </c>
-      <c r="F401" t="n">
-        <v>133.5012</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-17800.76038045001</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C402" t="n">
-        <v>10740</v>
-      </c>
-      <c r="D402" t="n">
-        <v>10740</v>
-      </c>
-      <c r="E402" t="n">
-        <v>10720</v>
-      </c>
-      <c r="F402" t="n">
-        <v>34.3634</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-17835.12378045001</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>10720</v>
-      </c>
-      <c r="C403" t="n">
-        <v>10710</v>
-      </c>
-      <c r="D403" t="n">
-        <v>10720</v>
-      </c>
-      <c r="E403" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F403" t="n">
-        <v>74</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-17909.12378045001</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C404" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D404" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E404" t="n">
-        <v>10730</v>
-      </c>
-      <c r="F404" t="n">
-        <v>25</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-17884.12378045001</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C405" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D405" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E405" t="n">
-        <v>10730</v>
-      </c>
-      <c r="F405" t="n">
-        <v>2.176</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-17884.12378045001</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>10730</v>
-      </c>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>10730</v>
-      </c>
-      <c r="C406" t="n">
-        <v>10730</v>
-      </c>
-      <c r="D406" t="n">
-        <v>10730</v>
-      </c>
-      <c r="E406" t="n">
-        <v>10710</v>
-      </c>
-      <c r="F406" t="n">
-        <v>388.8975</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-17884.12378045001</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>10730</v>
-      </c>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14108,11 +13822,9 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>10730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14264,11 +13976,9 @@
         <v>-18392.37358045001</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14381,11 +14091,9 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14420,11 +14128,9 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>10700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14576,11 +14282,9 @@
         <v>-18107.68488045</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -14615,11 +14319,9 @@
         <v>-17919.68488045</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>10760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -14654,11 +14356,9 @@
         <v>-17971.78718045</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
@@ -14693,11 +14393,9 @@
         <v>-17797.32718045</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>10790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
@@ -14732,11 +14430,9 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
@@ -14771,11 +14467,9 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>10810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
@@ -14810,11 +14504,9 @@
         <v>-17701.37928045</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>10810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14849,11 +14541,9 @@
         <v>-17750.30348045001</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>10830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14888,11 +14578,9 @@
         <v>-17750.30348045001</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>10810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14964,11 +14652,9 @@
         <v>-17678.76348045</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>10780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
@@ -15003,11 +14689,9 @@
         <v>-17779.26348045</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15079,11 +14763,9 @@
         <v>-17689.50068045</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15118,11 +14800,9 @@
         <v>-17689.50068045</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15231,11 +14911,9 @@
         <v>-17693.50068045</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>10780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -16232,18 +15910,16 @@
         <v>-18221.61368045001</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
@@ -16269,15 +15945,11 @@
         <v>-18162.61368045001</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16306,15 +15978,11 @@
         <v>-18287.89368045001</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16343,17 +16011,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>11120</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16382,17 +16044,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>11130</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16421,17 +16077,11 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>11130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16460,17 +16110,11 @@
         <v>-18287.90368045001</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>11130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16499,17 +16143,11 @@
         <v>-18537.96258045001</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>11120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16542,11 +16180,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16579,11 +16213,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16612,17 +16242,11 @@
         <v>-18670.04638045001</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>11040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16651,17 +16275,11 @@
         <v>-18283.04278045001</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>11010</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16690,17 +16308,11 @@
         <v>-18254.89278045001</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16729,17 +16341,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16768,17 +16374,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16807,17 +16407,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16846,17 +16440,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16885,17 +16473,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16924,17 +16506,11 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>11100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16963,17 +16539,11 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>11100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17002,17 +16572,11 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>11120</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17041,17 +16605,11 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>11120</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17080,17 +16638,11 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>11110</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17119,15 +16671,11 @@
         <v>-18220.16348045001</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17156,15 +16704,11 @@
         <v>-18310.16348045001</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17197,11 +16741,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17234,11 +16774,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17271,11 +16807,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17308,11 +16840,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17345,11 +16873,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17382,11 +16906,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17419,11 +16939,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17456,11 +16972,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17493,11 +17005,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17530,11 +17038,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17567,11 +17071,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17604,11 +17104,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17641,11 +17137,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17678,11 +17170,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17715,11 +17203,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17752,11 +17236,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17789,11 +17269,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17826,11 +17302,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17863,11 +17335,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17900,11 +17368,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17937,11 +17401,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +17434,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18011,11 +17467,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18048,11 +17500,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18085,11 +17533,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18122,11 +17566,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18159,11 +17599,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18196,11 +17632,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18233,11 +17665,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18270,11 +17698,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18307,11 +17731,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18344,11 +17764,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18381,11 +17797,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18418,11 +17830,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18455,11 +17863,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18492,11 +17896,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18529,11 +17929,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18562,17 +17958,11 @@
         <v>-20217.43358045001</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>10830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18606,12 +17996,10 @@
       <c r="I526" t="n">
         <v>10860</v>
       </c>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="n">
+        <v>10860</v>
+      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18645,10 +18033,12 @@
       <c r="I527" t="n">
         <v>10850</v>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>10860</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L527" t="n">
@@ -18684,7 +18074,9 @@
       <c r="I528" t="n">
         <v>10860</v>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>10860</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18723,7 +18115,9 @@
       <c r="I529" t="n">
         <v>10860</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>10860</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18762,7 +18156,9 @@
       <c r="I530" t="n">
         <v>10850</v>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>10860</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18801,7 +18197,9 @@
       <c r="I531" t="n">
         <v>10890</v>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>10860</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18840,7 +18238,9 @@
       <c r="I532" t="n">
         <v>10890</v>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>10860</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18879,7 +18279,9 @@
       <c r="I533" t="n">
         <v>10890</v>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>10860</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18913,10 +18315,14 @@
         <v>-20622.85138045001</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>10900</v>
+      </c>
+      <c r="J534" t="n">
+        <v>10860</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18953,7 +18359,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>10860</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18990,7 +18398,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>10860</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19027,7 +18437,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>10860</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19064,7 +18476,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>10860</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19101,7 +18515,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>10860</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19138,7 +18554,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>10860</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19175,7 +18593,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>10860</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19212,7 +18632,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>10860</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19249,7 +18671,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>10860</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19286,7 +18710,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>10860</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19323,7 +18749,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>10860</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19360,7 +18788,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>10860</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19397,7 +18827,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>10860</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19431,12 +18863,12 @@
         <v>-21209.77328045001</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>10820</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>10860</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19470,12 +18902,12 @@
         <v>-21237.25508045001</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>10820</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>10860</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19509,12 +18941,12 @@
         <v>-21387.99028045001</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>10810</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>10860</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19548,12 +18980,12 @@
         <v>-21557.91718045001</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>10800</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>10860</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19592,7 +19024,9 @@
       <c r="I552" t="n">
         <v>10750</v>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>10860</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19631,7 +19065,9 @@
       <c r="I553" t="n">
         <v>10810</v>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>10860</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,7 +19106,9 @@
       <c r="I554" t="n">
         <v>10760</v>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>10860</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19704,10 +19142,14 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>10770</v>
+      </c>
+      <c r="J555" t="n">
+        <v>10860</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19746,7 +19188,9 @@
       <c r="I556" t="n">
         <v>10740</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>10860</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19780,10 +19224,14 @@
         <v>-20893.31378045001</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>10740</v>
+      </c>
+      <c r="J557" t="n">
+        <v>10860</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19817,10 +19265,14 @@
         <v>-20796.12898045001</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J558" t="n">
+        <v>10860</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19854,10 +19306,14 @@
         <v>-20756.12898045001</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J559" t="n">
+        <v>10860</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19891,10 +19347,14 @@
         <v>-20591.67265920001</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>10810</v>
+      </c>
+      <c r="J560" t="n">
+        <v>10860</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19931,7 +19391,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>10860</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19968,7 +19430,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>10860</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20005,7 +19469,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>10860</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20042,7 +19508,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>10860</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20079,7 +19547,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>10860</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20116,7 +19586,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>10860</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20153,7 +19625,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>10860</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20190,7 +19664,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>10860</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20227,7 +19703,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>10860</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20264,7 +19742,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>10860</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20301,7 +19781,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>10860</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20335,12 +19817,12 @@
         <v>-19486.68432464001</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>10880</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>10860</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20377,7 +19859,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>10860</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20411,12 +19895,12 @@
         <v>-19451.73092464001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>10880</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>10860</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20450,12 +19934,12 @@
         <v>-19469.73092464001</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>10900</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>10860</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20492,7 +19976,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>10860</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20529,7 +20015,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>10860</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20566,7 +20054,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>10860</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20603,7 +20093,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>10860</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20640,7 +20132,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>10860</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20677,7 +20171,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>10860</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20714,7 +20210,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>10860</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20751,7 +20249,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>10860</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20788,7 +20288,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>10860</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20825,7 +20327,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>10860</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20862,7 +20366,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>10860</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20899,7 +20405,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>10860</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20936,7 +20444,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>10860</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20973,7 +20483,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>10860</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21010,7 +20522,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>10860</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21047,7 +20561,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>10860</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21084,7 +20600,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>10860</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,7 +20639,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>10860</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21158,7 +20678,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>10860</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21195,7 +20717,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>10860</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21232,7 +20756,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>10860</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21269,7 +20795,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>10860</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21306,7 +20834,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>10860</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21340,12 +20870,12 @@
         <v>-19499.93405577</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>10810</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>10860</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21379,12 +20909,12 @@
         <v>-19441.62635577</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>10820</v>
-      </c>
-      <c r="J600" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>10860</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21421,7 +20951,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>10860</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21455,12 +20987,12 @@
         <v>-19465.37865577</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>10830</v>
-      </c>
-      <c r="J602" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>10860</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21497,7 +21029,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>10860</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21534,7 +21068,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>10860</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21571,7 +21107,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>10860</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,7 +21146,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>10860</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21645,7 +21185,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>10860</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21682,7 +21224,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>10860</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21716,12 +21260,12 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>10800</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>10860</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21758,7 +21302,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>10860</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21795,7 +21341,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>10860</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21832,7 +21380,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>10860</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21869,7 +21419,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>10860</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,7 +21458,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>10860</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21943,7 +21497,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>10860</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21980,7 +21536,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>10860</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22017,7 +21575,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>10860</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22054,7 +21614,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>10860</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22091,7 +21653,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>10860</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22128,7 +21692,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>10860</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22165,7 +21731,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>10860</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22202,7 +21770,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>10860</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22239,7 +21809,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>10860</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22276,7 +21848,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>10860</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22313,7 +21887,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>10860</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22350,7 +21926,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>10860</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22387,7 +21965,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>10860</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22424,7 +22004,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>10860</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22461,7 +22043,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>10860</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22498,7 +22082,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>10860</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22535,7 +22121,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>10860</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22572,7 +22160,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>10860</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22609,7 +22199,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>10860</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22646,7 +22238,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>10860</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22683,7 +22277,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>10860</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22720,7 +22316,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>10860</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22757,7 +22355,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>10860</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22794,7 +22394,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>10860</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22831,7 +22433,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>10860</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22868,7 +22472,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>10860</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22905,7 +22511,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>10860</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22942,7 +22550,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>10860</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22979,7 +22589,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>10860</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23013,17 +22625,19 @@
         <v>-17373.36515576999</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>10860</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L644" t="n">
-        <v>1</v>
+        <v>1.032753222836096</v>
       </c>
       <c r="M644" t="inlineStr"/>
     </row>
@@ -23050,15 +22664,11 @@
         <v>-16852.86515576999</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23087,15 +22697,11 @@
         <v>-16599.72915576999</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23124,15 +22730,11 @@
         <v>-16615.48985751999</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23165,11 +22767,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23202,11 +22800,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23239,11 +22833,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23276,11 +22866,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23313,11 +22899,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23350,11 +22932,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23387,11 +22965,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23424,11 +22998,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23461,11 +23031,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23494,17 +23060,11 @@
         <v>-17589.63015751999</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>11260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23533,17 +23093,11 @@
         <v>-17508.02535751999</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>11210</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23576,11 +23130,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23613,11 +23163,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23650,11 +23196,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23687,11 +23229,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23724,11 +23262,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23761,11 +23295,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23798,11 +23328,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23835,11 +23361,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23872,11 +23394,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23909,11 +23427,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23946,11 +23460,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23983,11 +23493,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24020,11 +23526,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24057,11 +23559,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24094,11 +23592,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24131,11 +23625,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24168,11 +23658,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24205,11 +23691,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24242,11 +23724,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24279,11 +23757,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24316,11 +23790,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24353,11 +23823,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24390,11 +23856,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24427,11 +23889,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24464,11 +23922,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24501,11 +23955,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24538,11 +23988,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24575,11 +24021,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24612,11 +24054,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24649,11 +24087,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24686,11 +24120,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24723,11 +24153,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24760,11 +24186,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24797,11 +24219,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24834,11 +24252,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24871,11 +24285,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24908,11 +24318,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24945,11 +24351,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24982,11 +24384,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25019,11 +24417,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25056,11 +24450,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25093,11 +24483,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25130,11 +24516,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25167,11 +24549,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25204,11 +24582,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25241,11 +24615,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25278,11 +24648,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25315,11 +24681,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25352,11 +24714,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25389,11 +24747,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25426,11 +24780,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25463,11 +24813,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25500,11 +24846,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25537,11 +24879,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25574,11 +24912,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25611,11 +24945,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25648,11 +24978,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25685,11 +25011,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25722,11 +25044,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25759,11 +25077,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25796,11 +25110,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25833,11 +25143,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25870,11 +25176,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25907,11 +25209,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25944,11 +25242,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25981,11 +25275,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26018,11 +25308,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26055,11 +25341,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26092,11 +25374,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26129,11 +25407,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -26166,11 +25440,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -26203,11 +25473,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26240,11 +25506,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26277,11 +25539,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26314,11 +25572,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26351,11 +25605,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26388,11 +25638,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26425,11 +25671,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26462,11 +25704,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26499,11 +25737,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26536,11 +25770,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26573,11 +25803,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26610,11 +25836,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26647,11 +25869,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26684,11 +25902,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26721,11 +25935,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26758,11 +25968,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26795,11 +26001,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26832,11 +26034,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26869,11 +26067,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26906,11 +26100,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26943,11 +26133,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26980,11 +26166,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27017,11 +26199,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27054,11 +26232,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27091,11 +26265,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27128,11 +26298,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27165,11 +26331,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27202,11 +26364,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27239,11 +26397,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27276,11 +26430,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27313,11 +26463,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27350,11 +26496,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27387,11 +26529,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27424,11 +26562,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27461,11 +26595,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27498,11 +26628,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27535,17 +26661,13 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
       <c r="M766" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest BTG.xlsx
+++ b/BackTest/2020-01-25 BackTest BTG.xlsx
@@ -4180,7 +4180,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-5872.375724300002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-5806.109108200002</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-5680.794907590002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5648.844907590003</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-5801.462307590003</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-5837.682307590003</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-5830.682307590003</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-6135.504607590003</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-6134.112807590002</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-6118.338607590003</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6199.868607590002</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6300.868607590002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6250.393607590002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6536.893607590002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6420.433607590002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6303.553907590002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6033.435607590002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-6074.889507590003</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6075.222007590003</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6041.222007590003</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5973.328007590003</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-5968.329334880003</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-5550.933714050003</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5238.742914050003</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-5352.407414050002</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-5333.518716900003</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-5346.383216900002</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-5518.846423120002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5608.346423120002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-5559.582546020002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5769.582546020002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5961.582546020002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5948.603246020002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5951.603246020002</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-5684.988046020002</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-5724.988046020002</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-5699.841546020002</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-5907.341546020002</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-6014.806546020002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5766.223746020002</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5846.017146020002</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5845.644374820002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5851.694374820002</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5851.567074820002</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5895.894074820002</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-6133.141574820002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-7219.540274820002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-7343.753874820002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -13783,17 +13783,11 @@
         <v>-17884.12378045001</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>10730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13826,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13859,17 +13849,11 @@
         <v>-18001.15698045001</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>10710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13903,12 +13887,10 @@
       <c r="I409" t="n">
         <v>10710</v>
       </c>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13937,15 +13919,15 @@
         <v>-18417.37358045001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>10710</v>
-      </c>
-      <c r="J410" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>10710</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -13979,10 +13961,12 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>10710</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L411" t="n">
@@ -14013,12 +13997,12 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>10750</v>
-      </c>
-      <c r="J412" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>10710</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14057,7 +14041,9 @@
       <c r="I413" t="n">
         <v>10700</v>
       </c>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>10710</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14091,10 +14077,14 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J414" t="n">
+        <v>10710</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14128,10 +14118,14 @@
         <v>-18394.77558045</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>10700</v>
+      </c>
+      <c r="J415" t="n">
+        <v>10710</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,7 +14164,9 @@
       <c r="I416" t="n">
         <v>10700</v>
       </c>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>10710</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,7 +14205,9 @@
       <c r="I417" t="n">
         <v>10710</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>10710</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14248,7 +14246,9 @@
       <c r="I418" t="n">
         <v>10710</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>10710</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14282,10 +14282,14 @@
         <v>-18107.68488045</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J419" t="n">
+        <v>10710</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14319,10 +14323,14 @@
         <v>-17919.68488045</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J420" t="n">
+        <v>10710</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14356,10 +14364,14 @@
         <v>-17971.78718045</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J421" t="n">
+        <v>10710</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14393,10 +14405,14 @@
         <v>-17797.32718045</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>10790</v>
+      </c>
+      <c r="J422" t="n">
+        <v>10710</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14430,10 +14446,14 @@
         <v>-17716.32718045</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>10800</v>
+      </c>
+      <c r="J423" t="n">
+        <v>10710</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14470,7 +14490,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>10710</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,7 +14529,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>10710</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,7 +14568,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>10710</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,7 +14607,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>10710</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14618,7 +14646,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>10710</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14655,7 +14685,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>10710</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,7 +14724,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>10710</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14729,7 +14763,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>10710</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14766,7 +14802,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>10710</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,7 +14841,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>10710</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14840,7 +14880,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>10710</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,7 +14919,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>10710</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14914,7 +14958,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>10710</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14951,7 +14997,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>10710</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,7 +15036,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>10710</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15025,7 +15075,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>10710</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15062,7 +15114,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>10710</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15099,7 +15153,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>10710</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,7 +15192,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>10710</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15173,7 +15231,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>10710</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15210,7 +15270,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>10710</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,7 +15309,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>10710</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15284,7 +15348,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>10710</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,7 +15387,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>10710</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,7 +15426,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>10710</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,7 +15465,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>10710</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15432,7 +15504,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>10710</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,7 +15543,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>10710</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15506,7 +15582,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>10710</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15543,7 +15621,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>10710</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15580,7 +15660,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>10710</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,7 +15699,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>10710</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15654,7 +15738,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>10710</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,7 +15777,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>10710</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15728,7 +15816,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>10710</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15765,7 +15855,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>10710</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15802,7 +15894,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>10710</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15839,7 +15933,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>10710</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15876,7 +15972,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>10710</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15910,16 +16008,20 @@
         <v>-18221.61368045001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>10710</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L463" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
       <c r="M463" t="inlineStr"/>
     </row>
     <row r="464">
@@ -15945,11 +16047,17 @@
         <v>-18162.61368045001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +16086,17 @@
         <v>-18287.89368045001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16011,11 +16125,17 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16044,11 +16164,17 @@
         <v>-18285.21368045001</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16080,8 +16206,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16113,8 +16245,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16146,8 +16284,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16179,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16212,8 +16362,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16245,8 +16401,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16278,8 +16440,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16311,8 +16479,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16344,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16377,8 +16557,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16410,8 +16596,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16443,8 +16635,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16476,8 +16674,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16506,11 +16710,17 @@
         <v>-18195.71278045001</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16539,11 +16749,17 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16572,11 +16788,17 @@
         <v>-18095.71278045001</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16605,11 +16827,17 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16638,11 +16866,17 @@
         <v>-18131.96018045001</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16671,11 +16905,17 @@
         <v>-18220.16348045001</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16704,11 +16944,17 @@
         <v>-18310.16348045001</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16740,8 +16986,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16773,8 +17025,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16806,8 +17064,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16839,8 +17103,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16872,8 +17142,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16905,8 +17181,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16938,8 +17220,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16971,8 +17259,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17004,8 +17298,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17037,8 +17337,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17070,8 +17376,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17103,8 +17415,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17136,8 +17454,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17169,8 +17493,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17202,8 +17532,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17235,8 +17571,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17268,8 +17610,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17301,8 +17649,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17334,8 +17688,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17367,8 +17727,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17400,8 +17766,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17433,8 +17805,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17466,8 +17844,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17499,8 +17883,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17532,8 +17922,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17565,8 +17961,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17598,8 +18000,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17631,8 +18039,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17664,8 +18078,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17697,8 +18117,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17730,8 +18156,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17763,8 +18195,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17796,8 +18234,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17829,8 +18273,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17862,8 +18312,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17895,8 +18351,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17928,8 +18390,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17961,8 +18429,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17991,15 +18465,17 @@
         <v>-20248.26638045001</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>10860</v>
-      </c>
-      <c r="K526" t="inlineStr"/>
+        <v>10710</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18028,17 +18504,15 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>10850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L527" t="n">
@@ -18069,13 +18543,11 @@
         <v>-20128.71868045001</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18110,13 +18582,11 @@
         <v>-20208.71868045001</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18151,13 +18621,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>10850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18192,13 +18660,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>10890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18233,13 +18699,11 @@
         <v>-20113.71868045001</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>10890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18274,13 +18738,11 @@
         <v>-20095.30868045001</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>10890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18315,13 +18777,11 @@
         <v>-20622.85138045001</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>10900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18360,7 +18820,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18399,7 +18859,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18438,7 +18898,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18477,7 +18937,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18516,7 +18976,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18555,7 +19015,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18594,7 +19054,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -18633,7 +19093,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -18672,7 +19132,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -18711,7 +19171,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -18750,7 +19210,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -18789,7 +19249,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -18828,7 +19288,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -18867,7 +19327,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -18906,7 +19366,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -18945,7 +19405,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -18984,7 +19444,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19019,13 +19479,11 @@
         <v>-21102.15658045001</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>10750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19060,13 +19518,11 @@
         <v>-21142.15658045001</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>10810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19101,13 +19557,11 @@
         <v>-21005.85848045001</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>10760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19142,13 +19596,11 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>10770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19183,13 +19635,11 @@
         <v>-21013.07488045001</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>10740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19224,13 +19674,11 @@
         <v>-20893.31378045001</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>10740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19265,13 +19713,11 @@
         <v>-20796.12898045001</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>10760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19306,13 +19752,11 @@
         <v>-20756.12898045001</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19347,13 +19791,11 @@
         <v>-20591.67265920001</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>10810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19392,7 +19834,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19431,7 +19873,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19470,7 +19912,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19509,7 +19951,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19548,7 +19990,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19587,7 +20029,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -19626,7 +20068,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -19665,7 +20107,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -19704,7 +20146,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -19743,7 +20185,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -19782,7 +20224,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -19821,7 +20263,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -19860,7 +20302,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -19899,7 +20341,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -19938,7 +20380,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -19977,7 +20419,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20016,7 +20458,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20055,7 +20497,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20094,7 +20536,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20133,7 +20575,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20172,7 +20614,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20211,7 +20653,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20250,7 +20692,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20289,7 +20731,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20328,7 +20770,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20367,7 +20809,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20406,7 +20848,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20445,7 +20887,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20484,7 +20926,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20523,7 +20965,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20562,7 +21004,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -20601,7 +21043,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -20640,7 +21082,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -20675,11 +21117,13 @@
         <v>-19430.29135577</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>10850</v>
+      </c>
       <c r="J594" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -20718,7 +21162,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -20757,7 +21201,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -20796,7 +21240,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -20835,7 +21279,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -20874,7 +21318,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -20913,7 +21357,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -20952,7 +21396,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -20991,7 +21435,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -21030,7 +21474,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -21069,7 +21513,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -21104,11 +21548,13 @@
         <v>-19488.78075577</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>10800</v>
+      </c>
       <c r="J605" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -21147,7 +21593,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -21182,11 +21628,13 @@
         <v>-19513.83275577</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>10790</v>
+      </c>
       <c r="J607" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -21221,11 +21669,13 @@
         <v>-19423.13695577</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>10790</v>
+      </c>
       <c r="J608" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -21260,11 +21710,13 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>10800</v>
+      </c>
       <c r="J609" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -21299,11 +21751,13 @@
         <v>-19319.50525577</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>10850</v>
+      </c>
       <c r="J610" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -21342,7 +21796,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -21381,7 +21835,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -21420,7 +21874,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -21459,7 +21913,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -21498,7 +21952,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -21537,7 +21991,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -21576,7 +22030,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -21615,7 +22069,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -21654,7 +22108,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -21693,7 +22147,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -21732,7 +22186,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -21771,7 +22225,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -21810,7 +22264,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -21849,7 +22303,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -21888,7 +22342,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -21927,7 +22381,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -21966,7 +22420,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -22005,7 +22459,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -22044,7 +22498,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -22083,7 +22537,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -22122,7 +22576,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -22161,7 +22615,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -22200,7 +22654,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -22239,7 +22693,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -22278,7 +22732,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -22317,7 +22771,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -22356,7 +22810,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -22395,7 +22849,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -22434,7 +22888,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -22473,7 +22927,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -22512,7 +22966,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -22551,7 +23005,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -22590,7 +23044,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -22625,19 +23079,19 @@
         <v>-17373.36515576999</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>10860</v>
+        <v>10710</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L644" t="n">
-        <v>1.032753222836096</v>
+        <v>1</v>
       </c>
       <c r="M644" t="inlineStr"/>
     </row>
@@ -22664,11 +23118,17 @@
         <v>-16852.86515576999</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22697,11 +23157,17 @@
         <v>-16599.72915576999</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22730,11 +23196,17 @@
         <v>-16615.48985751999</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22766,8 +23238,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22799,8 +23277,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22832,8 +23316,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22865,8 +23355,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22898,8 +23394,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22931,8 +23433,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22964,8 +23472,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22997,8 +23511,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23030,8 +23550,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23063,8 +23589,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23096,8 +23628,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23129,8 +23667,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23162,8 +23706,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23195,8 +23745,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23228,8 +23784,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23261,8 +23823,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23294,8 +23862,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23327,8 +23901,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23360,8 +23940,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23393,8 +23979,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23426,8 +24018,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23459,8 +24057,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23492,8 +24096,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23525,8 +24135,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23558,8 +24174,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23591,8 +24213,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23624,8 +24252,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23657,8 +24291,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23690,8 +24330,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23723,8 +24369,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23756,8 +24408,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23789,8 +24447,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23822,8 +24486,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23855,8 +24525,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23888,8 +24564,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23921,8 +24603,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23954,8 +24642,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23987,8 +24681,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24020,8 +24720,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24053,8 +24759,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24086,8 +24798,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24119,8 +24837,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24152,8 +24876,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24185,8 +24915,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24218,8 +24954,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24251,8 +24993,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24284,8 +25032,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24317,8 +25071,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24350,8 +25110,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24383,8 +25149,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24416,8 +25188,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24449,8 +25227,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24482,8 +25266,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24515,8 +25305,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24548,8 +25344,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24581,8 +25383,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24614,8 +25422,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24647,8 +25461,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24680,8 +25500,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24713,8 +25539,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24746,8 +25578,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24779,8 +25617,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24812,8 +25656,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24845,8 +25695,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24878,8 +25734,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24911,8 +25773,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24944,8 +25812,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24977,8 +25851,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25010,8 +25890,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25043,8 +25929,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25076,8 +25968,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25109,8 +26007,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25142,8 +26046,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25175,8 +26085,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25208,8 +26124,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25241,8 +26163,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25274,8 +26202,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25307,8 +26241,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25340,8 +26280,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25373,8 +26319,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25406,8 +26358,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25439,8 +26397,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25472,8 +26436,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25505,8 +26475,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25538,8 +26514,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25571,8 +26553,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25604,8 +26592,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25637,8 +26631,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25670,8 +26670,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25703,8 +26709,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25736,8 +26748,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25769,8 +26787,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25802,8 +26826,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25835,8 +26865,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25868,8 +26904,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25901,8 +26943,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25934,8 +26982,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25967,8 +27021,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26000,8 +27060,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26033,8 +27099,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26066,8 +27138,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26099,8 +27177,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26132,8 +27216,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26165,8 +27255,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26195,15 +27291,23 @@
         <v>-13378.03512818</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>10710</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
+        <v>1.081834733893557</v>
+      </c>
+      <c r="M752" t="n">
+        <v>1.089285714285714</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -26228,7 +27332,7 @@
         <v>-13504.29482818</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
